--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-T.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-T.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-T.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-T.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'T': 350.0 ton, 2.09 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'T': 300.0-400.0 ton, 5.91 COP, 9.02 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>a633d3a8-b925-4bb9-a9f1-d0a3c3fcf701</t>
+          <t>2df0827b-342c-42ef-8ef9-9ad8e47dae8f</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>608129.1715341037</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84457.36680142462</v>
+        <v>29900.01509044969</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>327352.5122211441</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>411809.8790225687</v>
+        <v>357252.5273115938</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.514012740995</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0900805501979</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175313.7968770846</v>
+        <v>62065.4582389898</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>654705.0244422882</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>830018.8213193729</v>
+        <v>716770.482681278</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.9891365931011</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2704442030471</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>313999.169465178</v>
+        <v>111163.5403868538</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>982057.5366634324</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1296056.70612861</v>
+        <v>1093221.077050286</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.4642604452073</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.5858014908621</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500513.4845657045</v>
+        <v>177194.2615340417</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1309410.048884576</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1809923.533450281</v>
+        <v>1486604.310418618</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.9393842973134</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>291.0361524136432</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>94912.35627638236</v>
+        <v>33601.34222046455</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>304247.0246198273</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>399159.3808962096</v>
+        <v>337848.3668402918</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.4098942308178</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1324802178156</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197015.9167818445</v>
+        <v>69748.55016124615</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>608494.0492396546</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>805509.966021499</v>
+        <v>678242.5994009008</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7808995727466</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.28347783946</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>352869.1714109234</v>
+        <v>124924.4908966676</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>912741.0738594818</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1265610.245270405</v>
+        <v>1037665.564756149</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1519049146755</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5867227381233</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>562472.1201636192</v>
+        <v>199129.164426729</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1216988.098479309</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1779460.218642928</v>
+        <v>1416117.262906038</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.5229102566044</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.0422149138057</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93891.33208253677</v>
+        <v>33239.87418090945</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>273388.205092996</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>367279.5371755327</v>
+        <v>306628.0792739054</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2708374677491</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.1196075523511</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194896.508672102</v>
+        <v>68998.22681037591</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>546776.4101859919</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>741672.9188580939</v>
+        <v>615774.6369963678</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5027860466093</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.1835042685204</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>349073.1644903529</v>
+        <v>123580.6097349998</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>820164.6152789879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1169237.779769341</v>
+        <v>943745.2250139876</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7347346254696</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.3984959690377</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>556421.2995372894</v>
+        <v>196987.022954781</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1093552.820371984</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1649974.119909273</v>
+        <v>1290539.843326765</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9666832043297</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.7645826539028</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82743.16787321981</v>
+        <v>29293.14589996373</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>234776.0536406503</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>317519.2215138701</v>
+        <v>264069.199540614</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.096842451789</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.0551957302408</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171755.5196765557</v>
+        <v>60805.73932966165</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>469552.1072813006</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>641307.6269578564</v>
+        <v>530357.8466109622</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.1547960146892</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>314.9782638856487</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>307626.0482072069</v>
+        <v>108907.296449784</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>704328.1609219508</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1011954.209129158</v>
+        <v>813235.4573717348</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2127495775893</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.0349170923749</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>490354.7534651735</v>
+        <v>173597.8172603307</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>939104.2145626012</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1429458.968027775</v>
+        <v>1112702.031822932</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.2707031404894</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.2251553504191</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>82561.74718029652</v>
+        <v>29228.91844815506</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>352654.4891052183</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>435216.2362855148</v>
+        <v>381883.4075533733</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5203861073811</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.1561432537046</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>171378.9326278116</v>
+        <v>60672.41811841915</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>705308.9782104365</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>876687.9108382481</v>
+        <v>765981.3963288557</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1129944369844</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.4021642391542</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>306951.5546839167</v>
+        <v>108668.5089136747</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1057963.467315655</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1364915.021999571</v>
+        <v>1166631.976229329</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.7056027665877</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.7801489689531</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>489279.6133486122</v>
+        <v>173217.1908339217</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1410617.956420873</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1899897.569769485</v>
+        <v>1583835.147254795</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.298211096191</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2900974431015</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97097.88185894056</v>
+        <v>34375.07280636712</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>336422.7537571936</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>433520.6356161342</v>
+        <v>370797.8265635608</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4470826397724</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.2298092826849</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>201552.5581970468</v>
+        <v>71354.63441312009</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>672845.5075143873</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>874398.065711434</v>
+        <v>744200.1419275074</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.966387501767</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.4786050074896</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>360994.610833889</v>
+        <v>127801.0991851362</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1009268.261271581</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1370262.87210547</v>
+        <v>1137069.360456717</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4856923637616</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.8831537732819</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>575424.0397694674</v>
+        <v>203714.4671224155</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1345691.015028775</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1921115.054798242</v>
+        <v>1549405.48215119</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>287.0049972257563</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.4434555800617</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>100180.951159811</v>
+        <v>35466.55626260213</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>312437.6864836545</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>412618.6376434655</v>
+        <v>347904.2427462567</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3387646710352</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2484456207088</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>207952.291052105</v>
+        <v>73620.29951952804</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>624875.3729673091</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>832827.664019414</v>
+        <v>698495.6724868371</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7497515642926</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4425345793784</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>372456.9762442747</v>
+        <v>131859.0625306972</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>937313.0594509636</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1309770.035695238</v>
+        <v>1069172.121981661</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.16073845755</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.7978401158907</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>593695.0067363202</v>
+        <v>210182.8452961096</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1249750.745934618</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1843445.752670938</v>
+        <v>1459933.591230728</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5717253508074</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3143622302458</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>92683.56517528403</v>
+        <v>32812.294561508</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>280699.2872846011</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>373382.8524598851</v>
+        <v>313511.5818461091</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.1954322011695</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.214453868904</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>192389.4662402582</v>
+        <v>68110.67123786116</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>561398.5745692021</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>753788.0408094603</v>
+        <v>629509.2458070633</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.4630866245612</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.2989272768877</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>344582.8776137026</v>
+        <v>121990.9361463362</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>842097.8618538033</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1186680.739467506</v>
+        <v>964088.7980001394</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7307410479528</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.533034051934</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>549263.7992956172</v>
+        <v>194453.0892869332</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1122797.149138404</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1672060.948434021</v>
+        <v>1317250.238425337</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>285.9983954713445</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>317.9167741940427</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>79021.75542180431</v>
+        <v>27975.67304153649</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>361742.4153119258</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>440764.1707337301</v>
+        <v>389718.0883534623</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4533704940581</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.1718018862892</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>164030.7353112408</v>
+        <v>58070.97292809432</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>723484.8306238516</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>887515.5659350925</v>
+        <v>781555.803551946</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0900743214495</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.4327244908114</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>293790.423640208</v>
+        <v>104009.1401490823</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1085227.245935777</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1379017.669575986</v>
+        <v>1189236.38608486</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.726778148841</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.8199526434435</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>468300.8204087057</v>
+        <v>165790.1747045006</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1446969.661247703</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1915270.481656409</v>
+        <v>1612759.835952204</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.3634819762324</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3334863441855</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>96376.33960534976</v>
+        <v>34119.62884584811</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>352384.4322171934</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>448760.7718225431</v>
+        <v>386504.0610630414</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4110302925791</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2729773281343</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>200054.8047520257</v>
+        <v>70824.39232407653</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>704768.8644343867</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>904823.6691864124</v>
+        <v>775593.2567584632</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0053939184915</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5647862473321</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>358312.0305340055</v>
+        <v>126851.3988276002</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1057153.29665158</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1415465.327185586</v>
+        <v>1184004.69547918</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5997575444039</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0111907940079</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>571148.0169512895</v>
+        <v>202200.6483564192</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1409537.728868773</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1980685.745820063</v>
+        <v>1611738.377225193</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1941211703164</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.6121909681618</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>102616.5929324925</v>
+        <v>36328.83422030041</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>335273.1171969463</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>437889.7101294388</v>
+        <v>371601.9514172468</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3336101350308</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3202572828463</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>213008.1153475177</v>
+        <v>75410.18746480261</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>670546.2343938927</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>883554.3497414103</v>
+        <v>745956.4218586953</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.850553603395</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.5866823047448</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>381512.3082147215</v>
+        <v>135064.8759821393</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1005819.351590839</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1387331.65980556</v>
+        <v>1140884.227572978</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3674970717591</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0182434703007</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>608129.1715341037</v>
+        <v>215292.8997723105</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1341092.468787785</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1949221.640321889</v>
+        <v>1556385.368560096</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8844405401233</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.614940779514</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>98138.86193465329</v>
+        <v>34743.60572600987</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>310408.4702511851</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>408547.3321858384</v>
+        <v>345152.0759771949</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2211100214133</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3147020893182</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>203713.3900635634</v>
+        <v>72119.62280742649</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>620816.9405023701</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>824530.3305659335</v>
+        <v>692936.5633097966</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.62555337616</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.5006020552829</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>364864.8105758739</v>
+        <v>129171.2464567233</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>931225.4107535551</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1296090.221329429</v>
+        <v>1060396.657210278</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.0299967309066</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.8449427148397</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>581593.1234715851</v>
+        <v>205898.4766739003</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1241633.88100474</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1823227.004476325</v>
+        <v>1447532.357678641</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.4344400856533</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.3477240679887</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>74823.56499626987</v>
+        <v>26489.40888448319</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>354616.2908412673</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>429439.8558375372</v>
+        <v>381105.6997257505</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3126752243769</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1398398492667</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>155316.2710627408</v>
+        <v>54985.83515499789</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>709232.5816825347</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>864548.8527452755</v>
+        <v>764218.4168375325</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.9197948931983</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3679026500211</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>278182.2137610877</v>
+        <v>98483.44442122632</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1063848.872523802</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1342031.08628489</v>
+        <v>1162332.316945028</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.5269145620196</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.7155607614333</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>443421.3930913106</v>
+        <v>156982.2366831684</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1418465.163365069</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1861886.55645638</v>
+        <v>1575447.400048238</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.1340342308409</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.1828141835032</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>93876.79321528191</v>
+        <v>33234.72705915108</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>352132.0599998271</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>446008.853215109</v>
+        <v>385366.7870589781</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3014166997398</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2651824537376</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>194866.3293743418</v>
+        <v>68987.54258598409</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>704264.1199996541</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>899130.4493739959</v>
+        <v>773251.6625856382</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.897277843924</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.5486600678618</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>349019.1112749155</v>
+        <v>123561.4735480871</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1056396.179999481</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1405415.291274397</v>
+        <v>1179957.653547568</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.4931389881082</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.9827238301234</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>556335.1389170031</v>
+        <v>196956.51994546</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1408528.239999308</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1964863.378916311</v>
+        <v>1605484.759944768</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.0890001322924</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5673737405224</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>102470.2113296035</v>
+        <v>36277.01148060222</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>341894.4972328723</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>444364.7085624757</v>
+        <v>378171.5087134745</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.255020104579</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3386569926359</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>212704.2612780939</v>
+        <v>75302.61554295446</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>683788.9944657446</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>896493.2557438385</v>
+        <v>759091.610008699</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8044846536025</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6234502079191</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>380968.0845019434</v>
+        <v>134872.2072092316</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1025683.491698617</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1406651.57620056</v>
+        <v>1160555.698907848</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.3539492026259</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0731440017068</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>607261.6810011517</v>
+        <v>214985.7864794337</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1367577.988931489</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1974839.669932641</v>
+        <v>1582563.775410923</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.9034137516494</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.687738373999</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>100523.9023096997</v>
+        <v>35587.96952642162</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>323903.6025404031</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>424427.5048501029</v>
+        <v>359491.5720668248</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1734854388947</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3599738823852</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>208664.1776584175</v>
+        <v>73872.32513999853</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>647807.2050808063</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>856471.3827392238</v>
+        <v>721679.5302208049</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6414153222338</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.5916608072816</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>373732.0145305782</v>
+        <v>132310.4578967286</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>971710.8076212094</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1345442.822151788</v>
+        <v>1104021.265517938</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.1093452055729</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.9856389641178</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.08458739839890193</v>
+        <v>0.06691856604777864</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>595727.4129261819</v>
+        <v>210902.3677966117</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1295614.410161613</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1891341.823087794</v>
+        <v>1506516.777958224</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.5772750889121</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5419083528936</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06691856604777864</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06691856604777864</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06691856604777864</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06691856604777864</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>